--- a/my_inventory_Optimization.xlsx
+++ b/my_inventory_Optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\mrMosesAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67145D9-478F-4BA3-A1CD-FAFF98845D59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DA040E-9DA4-4787-86D1-7C5B3E38221B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,8 +2719,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFF7524A"/>
       <color rgb="FF31396B"/>
-      <color rgb="FFF7524A"/>
       <color rgb="FF182142"/>
       <color rgb="FF0F231D"/>
       <color rgb="FF081021"/>
@@ -3557,6 +3557,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18633021020740359"/>
+          <c:y val="2.7893990536249889E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4016,6 +4024,541 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[my_inventory_Optimization.xlsx]pivot!PivotTable19</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Economic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Order Value by Status</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25147286821705422"/>
+          <c:y val="3.3333333333333333E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot!$B$321</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pivot!$A$322:$A$326</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>In Stock</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Out Of Stock</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Over Stock</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Running Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot!$B$322:$B$326</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019.461085240072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2215.6742335600925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2081.7303912987491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2261.0715121578064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E410-48AB-BC00-CDB0CF235F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="639388056"/>
+        <c:axId val="639386416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="639388056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Status</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639386416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639386416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639388056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout>
+              <c:manualLayout>
+                <c:xMode val="edge"/>
+                <c:yMode val="edge"/>
+                <c:x val="0.12936894516092465"/>
+                <c:y val="0.15973622047244093"/>
+              </c:manualLayout>
+            </c:layout>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>K</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4035,11 +4578,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Regression Analysis of Inventory Sales from November 2022 to</a:t>
+              <a:t>Regression Analysis of Inventory Sales from December 2022 to</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> June</a:t>
+              <a:t> May</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -4613,7 +5156,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4633,7 +5176,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Month from November 2022</a:t>
+                  <a:t>Month from December 2022</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -4643,6 +5186,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39658042744656924"/>
+              <c:y val="0.8195179799605341"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4672,36 +5223,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="645545904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -4858,6 +5379,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9999931826703481E-2"/>
+          <c:y val="0.9032840967871717"/>
+          <c:w val="0.9"/>
+          <c:h val="8.2117363066842919E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4928,541 +5459,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[my_inventory_Optimization.xlsx]pivot!PivotTable19</c:name>
-    <c:fmtId val="3"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>EOQ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> by Status</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.41839432861589976"/>
-          <c:y val="3.3333333333333333E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>pivot!$B$321</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>pivot!$A$322:$A$326</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>In Stock</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Out Of Stock</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Over Stock</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Running Low</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>pivot!$B$322:$B$326</c:f>
-              <c:numCache>
-                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2019.461085240072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2215.6742335600925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2081.7303912987491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2261.0715121578064</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E410-48AB-BC00-CDB0CF235F8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="639388056"/>
-        <c:axId val="639386416"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="639388056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Status</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639386416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639386416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sales</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639388056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout>
-              <c:manualLayout>
-                <c:xMode val="edge"/>
-                <c:yMode val="edge"/>
-                <c:x val="0.12936894516092465"/>
-                <c:y val="0.15973622047244093"/>
-              </c:manualLayout>
-            </c:layout>
-            <c:tx>
-              <c:rich>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-US"/>
-                    <a:t>K</a:t>
-                  </a:r>
-                </a:p>
-              </c:rich>
-            </c:tx>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-        <a:prstClr val="black">
-          <a:alpha val="40000"/>
-        </a:prstClr>
-      </a:outerShdw>
-    </a:effectLst>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:userShapes r:id="rId3"/>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -7892,10 +7889,18 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7946,10 +7951,18 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="F7524A"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7958,10 +7971,18 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7976,7 +7997,12 @@
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7985,13 +8011,18 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8019,10 +8050,18 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -8033,13 +8072,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -8061,7 +8105,12 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -8077,10 +8126,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -8096,10 +8153,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="F7524A"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -12457,7 +12522,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12565,11 +12630,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12580,11 +12640,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12616,9 +12671,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12973,7 +13025,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13081,6 +13133,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13091,6 +13148,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13122,6 +13184,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14808,8 +14873,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15012,7 +15077,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15287,15 +15352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>160734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>17860</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15310,8 +15375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8179595" y="922734"/>
-          <a:ext cx="946546" cy="208359"/>
+          <a:off x="8153399" y="970359"/>
+          <a:ext cx="2428875" cy="267891"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15345,7 +15410,23 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Total EOQ </a:t>
+            <a:t>Total Economic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Order Value (EOQ)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
@@ -15370,16 +15451,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177160</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>480579</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166254</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4332</xdr:rowOff>
+      <xdr:rowOff>32907</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15394,7 +15475,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9022773" y="939160"/>
+          <a:off x="10467975" y="1015360"/>
           <a:ext cx="4329" cy="208172"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -15672,44 +15753,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="43" name="Chart 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76568409-9182-46B0-9BA4-70E4A12E7312}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -16483,7 +16526,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:lum bright="70000" contrast="-70000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -16534,7 +16577,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:lum bright="70000" contrast="-70000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -16590,7 +16633,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16768,8 +16811,8 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+          <mc:Choice Requires="a14">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="13" name="Category 1">
@@ -16792,7 +16835,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback>
+          <mc:Fallback xmlns="">
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -16899,6 +16942,334 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024711D6-3880-40FE-B36A-B812E27AE562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1962150" y="3800475"/>
+          <a:ext cx="7334250" cy="2609850"/>
+          <a:chOff x="1959952" y="3994638"/>
+          <a:chExt cx="7320329" cy="2425212"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="43" name="Chart 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76568409-9182-46B0-9BA4-70E4A12E7312}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="1959952" y="3994638"/>
+          <a:ext cx="7320329" cy="2425212"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="TextBox 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9125F01-FF6C-4999-B121-763B2F4CF37D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2820446" y="5784285"/>
+            <a:ext cx="6411895" cy="232159"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dec</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     Jan        Feb       Mar       April     May      Jun        Jul         Aug      Sep        Oct       Nov       Dec       Jan       Feb       Mar      April      May</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87330CFA-A00D-4C50-A789-098EA31087DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="5876924"/>
+          <a:ext cx="485775" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="F7524A"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2022</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A600C7C-91BD-49D6-9542-779722F6BDF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="5876924"/>
+          <a:ext cx="485775" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="F7524A"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2023</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6037C31-767B-4DA9-9112-8562DFFE6F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="5867399"/>
+          <a:ext cx="485775" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="F7524A"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2024</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17034,6 +17405,111 @@
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
         </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10779</cdr:x>
+      <cdr:y>0.15328</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.10779</cdr:x>
+      <cdr:y>0.73723</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87567890-65FA-4047-8C65-C81343F5FFD5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="790575" y="400050"/>
+          <a:ext cx="0" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12338</cdr:x>
+      <cdr:y>0.72263</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96883</cdr:x>
+      <cdr:y>0.72628</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C808D73-0D37-43F8-8F16-217C15913AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="904875" y="1885950"/>
+          <a:ext cx="6200775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
       </cdr:spPr>
       <cdr:style>
         <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
@@ -28102,40 +28578,39 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{328FB1DD-F8B4-46A9-A811-8B2CA3C7E4B3}" name="PivotTable17" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A386:B391" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF269AB9-D0DE-45AA-A2CC-068D8A845B61}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A46:D47" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="13">
     <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="23">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="3"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="3"/>
@@ -28145,43 +28620,52 @@
       </items>
     </pivotField>
     <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="166" showAll="0"/>
     <pivotField numFmtId="166" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="5">
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
     <i>
       <x/>
     </i>
-    <i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Sales" fld="9" baseField="0" baseItem="0"/>
+  <dataFields count="4">
+    <dataField name="Sum of Total Sales" fld="8" baseField="2" baseItem="0"/>
+    <dataField name="Sum of Qnt. Left" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of In stock" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Demand " fld="5" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -28279,6 +28763,171 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6E25CDA-F818-4443-B186-3630E87F56E6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A19:D41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Total Sales" fld="8" baseField="2" baseItem="0"/>
+    <dataField name="Sum of Qnt. Left" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of In stock" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{865529F5-2380-4DC4-A9CB-3FF4993818D5}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J168:K181" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -28432,7 +29081,173 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0800FA9-DB69-4D50-80C1-D84EDA6A5378}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A163:A164" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="23">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="3"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of EOQ" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{328FB1DD-F8B4-46A9-A811-8B2CA3C7E4B3}" name="PivotTable17" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A386:B391" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="23">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="3"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{354772DB-E140-4271-8F36-CFA3F3E75158}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A49:B157" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -28943,7 +29758,238 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63A3A8FF-CE09-4CB4-A11A-9F2C12795A81}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="23">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="3"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Total Sales" fld="8" subtotal="count" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6A972F9-B1D8-4726-84E3-74B6331A0BB6}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A165:A166" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="23">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="3"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of EOQ" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{988D72D6-91C8-4290-95DB-CA9A9155E71E}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A168:B185" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -29110,756 +30156,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EE91457-83BD-4843-A689-9D5700982F1A}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A321:B326" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item h="1" x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of EOQ" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="2">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF269AB9-D0DE-45AA-A2CC-068D8A845B61}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A46:D47" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Sum of Total Sales" fld="8" baseField="2" baseItem="0"/>
-    <dataField name="Sum of Qnt. Left" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of In stock" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Total Demand " fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6A972F9-B1D8-4726-84E3-74B6331A0BB6}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A165:A166" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="23">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="3"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of EOQ" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B5B8440-2059-4082-953A-51316CE8A681}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A350:C367" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="18">
-        <item h="1" x="12"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="13"/>
-        <item h="1" x="2"/>
-        <item h="1" x="9"/>
-        <item h="1" x="5"/>
-        <item h="1" x="15"/>
-        <item h="1" x="1"/>
-        <item h="1" x="8"/>
-        <item h="1" x="4"/>
-        <item x="16"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6E25CDA-F818-4443-B186-3630E87F56E6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A19:D41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item h="1" x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Total Sales" fld="8" baseField="2" baseItem="0"/>
-    <dataField name="Sum of Qnt. Left" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of In stock" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0800FA9-DB69-4D50-80C1-D84EDA6A5378}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A163:A164" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="23">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="3"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of EOQ" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63A3A8FF-CE09-4CB4-A11A-9F2C12795A81}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="23">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="3"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Total Sales" fld="8" subtotal="count" baseField="3" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50E7555-688C-4E31-AAC0-065AE0CEB293}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A10:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -30149,7 +30446,135 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EE91457-83BD-4843-A689-9D5700982F1A}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A321:B326" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of EOQ" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3AA3020-F7C6-4D82-92BE-2533E6E91DFD}" name="PivotTable14" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G116:I133" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="1">
@@ -30179,6 +30604,57 @@
         <item t="default"/>
       </items>
     </pivotField>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B5B8440-2059-4082-953A-51316CE8A681}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A350:C367" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="18">
+        <item h="1" x="12"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="13"/>
+        <item h="1" x="2"/>
+        <item h="1" x="9"/>
+        <item h="1" x="5"/>
+        <item h="1" x="15"/>
+        <item h="1" x="1"/>
+        <item h="1" x="8"/>
+        <item h="1" x="4"/>
+        <item x="16"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -78572,7 +79048,7 @@
   <dimension ref="B1:T34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
